--- a/documentation/6_todo.xlsx
+++ b/documentation/6_todo.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="21885" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144315"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -664,10 +665,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1106,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>68</v>
@@ -1126,7 +1127,7 @@
         <v>69</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>70</v>
@@ -1147,7 +1148,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>72</v>
@@ -1168,7 +1169,7 @@
         <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
@@ -1206,7 +1207,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D2:D21</xm:sqref>
+          <xm:sqref>D2:D23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1246,7 +1247,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$F$1:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D21</xm:sqref>
+          <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/6_todo.xlsx
+++ b/documentation/6_todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="21885" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18270" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>LfdNr</t>
   </si>
@@ -249,8 +249,24 @@
 • Logfiles auslesen
 • Mitarbeiter zu Admin machen
 • EA/HA Dienste anlegen
-• xx
-• xx</t>
+• Mitarbeiterliste lesen
+• Mitarbeiterliste bearbeiten 
+• Kompetenzen lesen/bearbeiten
+• Dienstverhältnisse lesen/bearbeiten
+• Fahrzeuge lesen
+• Fahrzeuge bearbeiten
+• Ortsstellen lesen/bearbeiten
+• Verwendungen lesen/bearbeiten
+• Dienstplaneintrag löschen
+• Dienst im Nachhinein eintragen
+• xxx
+• xxx
+• xxx
+• xxx
+• xxx
+• xxx
+• xxx
+• xxx</t>
   </si>
 </sst>
 </file>
@@ -665,10 +681,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
@@ -743,6 +759,9 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="K2" s="8">
         <v>40393</v>
@@ -941,7 +960,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>

--- a/documentation/6_todo.xlsx
+++ b/documentation/6_todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18270" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21705" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>LfdNr</t>
   </si>
@@ -273,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -374,6 +389,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -681,10 +702,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +855,7 @@
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -849,7 +870,7 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -893,7 +914,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -933,6 +954,9 @@
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="K11" s="8"/>
     </row>
@@ -943,7 +967,7 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -971,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -989,7 +1013,7 @@
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1011,7 +1035,7 @@
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1078,7 +1102,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>60</v>
@@ -1100,7 +1124,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>

--- a/documentation/6_todo.xlsx
+++ b/documentation/6_todo.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21705" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16350" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +332,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -359,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -397,6 +410,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -413,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -423,34 +442,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Larissa">
@@ -487,7 +506,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -522,7 +540,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -604,7 +621,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -613,7 +630,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -622,7 +639,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -698,22 +715,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="6"/>
-    <col min="3" max="3" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="51.7109375" style="6" customWidth="1"/>
@@ -721,7 +738,7 @@
     <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="43.5" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -788,7 +805,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -810,7 +827,7 @@
       <c r="G3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -832,7 +849,7 @@
       <c r="G4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -848,7 +865,7 @@
       <c r="G5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -863,18 +880,18 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>64</v>
@@ -882,7 +899,7 @@
       <c r="G7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -893,7 +910,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>36</v>
@@ -903,7 +920,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -925,7 +942,7 @@
       <c r="G9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -944,7 +961,7 @@
       <c r="G10" s="7"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -960,7 +977,7 @@
       <c r="G11" s="7"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24.75" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -984,7 +1001,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="330">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1006,18 +1023,18 @@
       <c r="G13" s="7"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="63.75">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -1028,7 +1045,7 @@
       <c r="G14" s="7"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="38.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1050,7 +1067,7 @@
       <c r="G15" s="7"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="38.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1072,7 +1089,7 @@
       <c r="G16" s="7"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="102">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1091,7 +1108,7 @@
       <c r="G17" s="7"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1113,7 +1130,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1138,7 +1155,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1159,7 +1176,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1180,7 +1197,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1201,7 +1218,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1220,7 +1237,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="C24" s="3"/>
       <c r="F24" s="9"/>
       <c r="G24" s="7"/>
@@ -1299,16 +1316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1382,12 +1399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
